--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_36ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_36ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1402,28 +1402,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>56.17488466651697</v>
+        <v>73.35636891146314</v>
       </c>
       <c r="AB2" t="n">
-        <v>76.86095546170577</v>
+        <v>100.3694201992177</v>
       </c>
       <c r="AC2" t="n">
-        <v>69.52545374748667</v>
+        <v>90.79030360479545</v>
       </c>
       <c r="AD2" t="n">
-        <v>56174.88466651697</v>
+        <v>73356.36891146314</v>
       </c>
       <c r="AE2" t="n">
-        <v>76860.95546170577</v>
+        <v>100369.4201992177</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.798033425061242e-06</v>
+        <v>9.800482875580129e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.47337962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>69525.45374748667</v>
+        <v>90790.30360479545</v>
       </c>
     </row>
   </sheetData>
@@ -1699,28 +1699,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>54.84615815506137</v>
+        <v>71.76634611963883</v>
       </c>
       <c r="AB2" t="n">
-        <v>75.04293322945661</v>
+        <v>98.19388086858991</v>
       </c>
       <c r="AC2" t="n">
-        <v>67.88094100547255</v>
+        <v>88.82239469449344</v>
       </c>
       <c r="AD2" t="n">
-        <v>54846.15815506137</v>
+        <v>71766.34611963882</v>
       </c>
       <c r="AE2" t="n">
-        <v>75042.93322945661</v>
+        <v>98193.88086858991</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.923159426171296e-06</v>
+        <v>1.013524495790666e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.542824074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>67880.94100547254</v>
+        <v>88822.39469449344</v>
       </c>
     </row>
   </sheetData>
@@ -1996,28 +1996,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>61.32331039112098</v>
+        <v>84.45458439324803</v>
       </c>
       <c r="AB2" t="n">
-        <v>83.90525867061821</v>
+        <v>115.5544882400997</v>
       </c>
       <c r="AC2" t="n">
-        <v>75.8974585448844</v>
+        <v>104.5261300642373</v>
       </c>
       <c r="AD2" t="n">
-        <v>61323.31039112098</v>
+        <v>84454.58439324802</v>
       </c>
       <c r="AE2" t="n">
-        <v>83905.2586706182</v>
+        <v>115554.4882400997</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.462927436468662e-06</v>
+        <v>9.998946482190427e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.428240740740741</v>
       </c>
       <c r="AH2" t="n">
-        <v>75897.4585448844</v>
+        <v>104526.1300642373</v>
       </c>
     </row>
   </sheetData>
@@ -2293,28 +2293,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>53.34125083122706</v>
+        <v>77.32030651188886</v>
       </c>
       <c r="AB2" t="n">
-        <v>72.98385263716212</v>
+        <v>105.7930545007022</v>
       </c>
       <c r="AC2" t="n">
-        <v>66.01837617496822</v>
+        <v>95.69631386066658</v>
       </c>
       <c r="AD2" t="n">
-        <v>53341.25083122707</v>
+        <v>77320.30651188886</v>
       </c>
       <c r="AE2" t="n">
-        <v>72983.85263716211</v>
+        <v>105793.0545007022</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.849784171434768e-06</v>
+        <v>1.035203750340124e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.901620370370371</v>
       </c>
       <c r="AH2" t="n">
-        <v>66018.37617496823</v>
+        <v>95696.31386066657</v>
       </c>
     </row>
   </sheetData>
@@ -2590,28 +2590,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>70.04543366796241</v>
+        <v>92.636617233365</v>
       </c>
       <c r="AB2" t="n">
-        <v>95.83925253090833</v>
+        <v>126.7495065377553</v>
       </c>
       <c r="AC2" t="n">
-        <v>86.69248878061781</v>
+        <v>114.6527115278751</v>
       </c>
       <c r="AD2" t="n">
-        <v>70045.43366796241</v>
+        <v>92636.617233365</v>
       </c>
       <c r="AE2" t="n">
-        <v>95839.25253090833</v>
+        <v>126749.5065377553</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.886660449254846e-06</v>
+        <v>9.303796143271655e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.19212962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>86692.4887806178</v>
+        <v>114652.7115278751</v>
       </c>
     </row>
   </sheetData>
@@ -2887,28 +2887,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>55.09563475678415</v>
+        <v>72.1293409162362</v>
       </c>
       <c r="AB2" t="n">
-        <v>75.38427812206443</v>
+        <v>98.69054636349439</v>
       </c>
       <c r="AC2" t="n">
-        <v>68.18970842061057</v>
+        <v>89.2716591316388</v>
       </c>
       <c r="AD2" t="n">
-        <v>55095.63475678415</v>
+        <v>72129.34091623621</v>
       </c>
       <c r="AE2" t="n">
-        <v>75384.27812206442</v>
+        <v>98690.54636349439</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.922240814837132e-06</v>
+        <v>1.009183997247373e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.502314814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>68189.70842061056</v>
+        <v>89271.65913163879</v>
       </c>
     </row>
   </sheetData>
@@ -3184,28 +3184,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>71.45021162168513</v>
+        <v>101.1063186912883</v>
       </c>
       <c r="AB2" t="n">
-        <v>97.76133170162016</v>
+        <v>138.3381257293371</v>
       </c>
       <c r="AC2" t="n">
-        <v>88.43112741293258</v>
+        <v>125.1353291685452</v>
       </c>
       <c r="AD2" t="n">
-        <v>71450.21162168513</v>
+        <v>101106.3186912883</v>
       </c>
       <c r="AE2" t="n">
-        <v>97761.33170162016</v>
+        <v>138338.1257293371</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.419512761898882e-06</v>
+        <v>8.683332475525518e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.880787037037038</v>
       </c>
       <c r="AH2" t="n">
-        <v>88431.12741293258</v>
+        <v>125135.3291685452</v>
       </c>
     </row>
   </sheetData>
@@ -3481,28 +3481,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>53.93548950534321</v>
+        <v>78.54978711668996</v>
       </c>
       <c r="AB2" t="n">
-        <v>73.79691620704747</v>
+        <v>107.4752841050464</v>
       </c>
       <c r="AC2" t="n">
-        <v>66.75384209888588</v>
+        <v>97.21799383259673</v>
       </c>
       <c r="AD2" t="n">
-        <v>53935.48950534321</v>
+        <v>78549.78711668996</v>
       </c>
       <c r="AE2" t="n">
-        <v>73796.91620704747</v>
+        <v>107475.2841050464</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.957681841242605e-06</v>
+        <v>1.033106654976034e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.658564814814816</v>
       </c>
       <c r="AH2" t="n">
-        <v>66753.84209888589</v>
+        <v>97217.99383259674</v>
       </c>
     </row>
   </sheetData>
@@ -3778,28 +3778,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>54.35311791037574</v>
+        <v>71.15547100824054</v>
       </c>
       <c r="AB2" t="n">
-        <v>74.36833381527759</v>
+        <v>97.3580545912673</v>
       </c>
       <c r="AC2" t="n">
-        <v>67.27072441257636</v>
+        <v>88.06633850398869</v>
       </c>
       <c r="AD2" t="n">
-        <v>54353.11791037574</v>
+        <v>71155.47100824054</v>
       </c>
       <c r="AE2" t="n">
-        <v>74368.3338152776</v>
+        <v>97358.05459126731</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.989905632160415e-06</v>
+        <v>1.027825416672296e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.542824074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>67270.72441257635</v>
+        <v>88066.33850398869</v>
       </c>
     </row>
   </sheetData>
@@ -4075,28 +4075,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>55.77844340389256</v>
+        <v>72.85718247453011</v>
       </c>
       <c r="AB2" t="n">
-        <v>76.3185270364292</v>
+        <v>99.68641129365497</v>
       </c>
       <c r="AC2" t="n">
-        <v>69.03479392981524</v>
+        <v>90.17248011057036</v>
       </c>
       <c r="AD2" t="n">
-        <v>55778.44340389256</v>
+        <v>72857.18247453011</v>
       </c>
       <c r="AE2" t="n">
-        <v>76318.52703642921</v>
+        <v>99686.41129365496</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.848671472164224e-06</v>
+        <v>9.908469593111142e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.47337962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>69034.79392981523</v>
+        <v>90172.48011057037</v>
       </c>
     </row>
   </sheetData>
@@ -4372,28 +4372,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>53.54050346204424</v>
+        <v>77.74259030706908</v>
       </c>
       <c r="AB2" t="n">
-        <v>73.25647887705171</v>
+        <v>106.3708418191137</v>
       </c>
       <c r="AC2" t="n">
-        <v>66.26498334915617</v>
+        <v>96.21895796833864</v>
       </c>
       <c r="AD2" t="n">
-        <v>53540.50346204424</v>
+        <v>77742.59030706908</v>
       </c>
       <c r="AE2" t="n">
-        <v>73256.4788770517</v>
+        <v>106370.8418191137</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.895264376870283e-06</v>
+        <v>1.035451242444844e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.809027777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>66264.98334915617</v>
+        <v>96218.95796833864</v>
       </c>
     </row>
   </sheetData>
@@ -4669,28 +4669,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>61.27188676147168</v>
+        <v>76.98836025418338</v>
       </c>
       <c r="AB2" t="n">
-        <v>83.83489859188165</v>
+        <v>105.3388709864745</v>
       </c>
       <c r="AC2" t="n">
-        <v>75.83381353331144</v>
+        <v>95.28547698358601</v>
       </c>
       <c r="AD2" t="n">
-        <v>61271.88676147168</v>
+        <v>76988.36025418338</v>
       </c>
       <c r="AE2" t="n">
-        <v>83834.89859188165</v>
+        <v>105338.8709864745</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.625558039378291e-06</v>
+        <v>1.016192810242364e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.208333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>75833.81353331145</v>
+        <v>95285.47698358601</v>
       </c>
     </row>
   </sheetData>
@@ -7211,28 +7211,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>61.6725602923552</v>
+        <v>84.67734056262913</v>
       </c>
       <c r="AB2" t="n">
-        <v>84.38311779330485</v>
+        <v>115.8592730583554</v>
       </c>
       <c r="AC2" t="n">
-        <v>76.32971146358146</v>
+        <v>104.8018266472069</v>
       </c>
       <c r="AD2" t="n">
-        <v>61672.5602923552</v>
+        <v>84677.34056262912</v>
       </c>
       <c r="AE2" t="n">
-        <v>84383.11779330485</v>
+        <v>115859.2730583553</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.219117561793383e-06</v>
+        <v>9.717248515934851e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.74074074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>76329.71146358147</v>
+        <v>104801.8266472069</v>
       </c>
     </row>
   </sheetData>
@@ -7508,28 +7508,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>89.30044684968776</v>
+        <v>118.3822201403256</v>
       </c>
       <c r="AB2" t="n">
-        <v>122.1848110373606</v>
+        <v>161.9757762508795</v>
       </c>
       <c r="AC2" t="n">
-        <v>110.5236641594463</v>
+        <v>146.51703549997</v>
       </c>
       <c r="AD2" t="n">
-        <v>89300.44684968775</v>
+        <v>118382.2201403256</v>
       </c>
       <c r="AE2" t="n">
-        <v>122184.8110373606</v>
+        <v>161975.7762508795</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.719369720710804e-06</v>
+        <v>7.691044197096562e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.125</v>
       </c>
       <c r="AH2" t="n">
-        <v>110523.6641594463</v>
+        <v>146517.03549997</v>
       </c>
     </row>
   </sheetData>
@@ -7805,28 +7805,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>54.35914658385262</v>
+        <v>79.16539264694424</v>
       </c>
       <c r="AB2" t="n">
-        <v>74.37658251229496</v>
+        <v>108.3175827501391</v>
       </c>
       <c r="AC2" t="n">
-        <v>67.27818586552749</v>
+        <v>97.97990467717564</v>
       </c>
       <c r="AD2" t="n">
-        <v>54359.14658385262</v>
+        <v>79165.39264694424</v>
       </c>
       <c r="AE2" t="n">
-        <v>74376.58251229496</v>
+        <v>108317.5827501391</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.933277931863267e-06</v>
+        <v>1.024309173065981e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.623842592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>67278.18586552748</v>
+        <v>97979.90467717564</v>
       </c>
     </row>
   </sheetData>
@@ -8102,28 +8102,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>55.45317897729543</v>
+        <v>72.4258933126879</v>
       </c>
       <c r="AB2" t="n">
-        <v>75.87348589830546</v>
+        <v>99.09630243528783</v>
       </c>
       <c r="AC2" t="n">
-        <v>68.63222689329471</v>
+        <v>89.63869041342259</v>
       </c>
       <c r="AD2" t="n">
-        <v>55453.17897729543</v>
+        <v>72425.8933126879</v>
       </c>
       <c r="AE2" t="n">
-        <v>75873.48589830546</v>
+        <v>99096.30243528783</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.879428587608186e-06</v>
+        <v>9.990093040155706e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.49074074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>68632.22689329472</v>
+        <v>89638.69041342259</v>
       </c>
     </row>
   </sheetData>
@@ -8399,28 +8399,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>111.1214747229896</v>
+        <v>153.730117689984</v>
       </c>
       <c r="AB2" t="n">
-        <v>152.0413040494047</v>
+        <v>210.3403291174782</v>
       </c>
       <c r="AC2" t="n">
-        <v>137.5306953822816</v>
+        <v>190.2657433210721</v>
       </c>
       <c r="AD2" t="n">
-        <v>111121.4747229896</v>
+        <v>153730.117689984</v>
       </c>
       <c r="AE2" t="n">
-        <v>152041.3040494047</v>
+        <v>210340.3291174782</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.646429462953115e-06</v>
+        <v>6.078380663969453e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.88541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>137530.6953822816</v>
+        <v>190265.7433210721</v>
       </c>
     </row>
   </sheetData>
@@ -8696,28 +8696,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>61.27964730953106</v>
+        <v>77.16481876971363</v>
       </c>
       <c r="AB2" t="n">
-        <v>83.8455169161077</v>
+        <v>105.5803093122231</v>
       </c>
       <c r="AC2" t="n">
-        <v>75.84341845957628</v>
+        <v>95.50387277438608</v>
       </c>
       <c r="AD2" t="n">
-        <v>61279.64730953106</v>
+        <v>77164.81876971363</v>
       </c>
       <c r="AE2" t="n">
-        <v>83845.51691610769</v>
+        <v>105580.3093122231</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.765018522061036e-06</v>
+        <v>1.02957264847956e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.028935185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>75843.41845957628</v>
+        <v>95503.87277438608</v>
       </c>
     </row>
   </sheetData>
@@ -8993,28 +8993,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>53.57173437115826</v>
+        <v>77.98505697567988</v>
       </c>
       <c r="AB2" t="n">
-        <v>73.29921038471196</v>
+        <v>106.7025954119813</v>
       </c>
       <c r="AC2" t="n">
-        <v>66.3036366216994</v>
+        <v>96.51904946392216</v>
       </c>
       <c r="AD2" t="n">
-        <v>53571.73437115827</v>
+        <v>77985.05697567988</v>
       </c>
       <c r="AE2" t="n">
-        <v>73299.21038471196</v>
+        <v>106702.5954119813</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.973818251244617e-06</v>
+        <v>1.041128784544438e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.699074074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>66303.63662169939</v>
+        <v>96519.04946392216</v>
       </c>
     </row>
   </sheetData>
